--- a/Base/Teams/Colts/2021 Team Data.xlsx
+++ b/Base/Teams/Colts/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 4 8 0 2 10 1 1 23 38 1 6 9 -1 0 12 -5 6 2 4 7 5 0 -5 6 0 -3 -1 1 10 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4</t>
-  </si>
-  <si>
-    <t>10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 1 7 6 12 1 5 4 28 6 3 2 3 17 8 -2 3 14 10 1 3 41 11 24 20 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 12 9 17 13 7 51 52 6 18 28 10 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 8 -4 18 18 5 23 9 18 0 3 8 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10</t>
-  </si>
-  <si>
-    <t>4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 4 2 4 2 0 6 3 -2 4 -1 4 3 2 0 0 4 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 3 10 0 3 8 9 4 28 3 8 5 2 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28</t>
-  </si>
-  <si>
-    <t>23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 5 2 18 4 10 8 6 4 -7 11 8 7 4 22 25 42 22 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13</t>
+    <t>1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 4 8 0 2 10 1 1 23 38 1 6 9 -1 0 12 -5 6 2 4 7 5 0 -5 6 0 -3 -1 1 10 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 2 10 8 6 2 1 10 1 -1 6 0 7 6 0 3 8 2 0 7 0 -1 15 11 -1 4 9 3 16 4 1 11 25 4 5 3 6 -3 7 7 3 6 10 0 12 3</t>
+  </si>
+  <si>
+    <t>10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 1 7 6 12 1 5 4 28 6 3 2 3 17 8 -2 3 14 10 1 3 41 11 24 20 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 12 9 17 13 7 51 52 6 18 28 10 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 8 -4 18 18 5 23 9 18 0 3 8 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 12 4 8 9 14 6 13 2 8 17 24 14 4 17 0 6</t>
+  </si>
+  <si>
+    <t>4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 4 2 4 2 0 6 3 -2 4 -1 4 3 2 0 0 4 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 3 10 0 3 8 9 4 28 3 8 5 2 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 4 2 4 2 4 0 5 7 0 7 5 5 1 7 16 2 2 8 3</t>
+  </si>
+  <si>
+    <t>23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 5 2 18 4 10 8 6 4 -7 11 8 7 4 22 25 42 22 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 12 11 2 10 4 14 2 5</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>68 64 60 63 62 62 65 62 62 66 60 62 63 63 62 53 63 59 61 60 67 70 63 63 62 65 65 60 62 62 67 58 61 59 67 65 61</t>
-  </si>
-  <si>
-    <t>22 21 21 28 15 16 23 23 21 23 27 23 34 15 19 10 22 27 27 33 27 25 21 28 19 20 25 22 12 12 27 20 17 17 24 30 12</t>
+    <t>68 64 60 63 62 62 65 62 62 66 60 62 63 63 62 53 63 59 61 60 67 70 63 63 62 65 65 60 62 62 67 58 61 59 67 65 61 68 65</t>
+  </si>
+  <si>
+    <t>22 21 21 28 15 16 23 23 21 23 27 23 34 15 19 10 22 27 27 33 27 25 21 28 19 20 25 22 12 12 27 20 17 17 24 30 12 26 22</t>
   </si>
   <si>
     <t>22 19 41 16 17 21 23 0 26 20 27 31 14 18 27 31 25 18 3 15 27 19 26 33 19 72</t>
   </si>
   <si>
-    <t>46 47 52 42 45 40 40 50 56 51 56 57 37 38 52 42 40 50 49 36 34 79 46 35 42 37 63 46 35 38 47 38 47 43 43 42 43 55 46 31 41 47 46</t>
-  </si>
-  <si>
-    <t>6 0 9 0 0 0 12 18 0 14 -1 14 0 0 7 0 0 3 0 0 0 0 0 0 13 8 0 2 19 0 0 0 0 0 0 8 6 10 12 0 0 -1 4</t>
-  </si>
-  <si>
-    <t>0 7 0 0 0 0 0 0 0 0 0 0 -1 6 0 13 11 6 0 0 0 2 5 0 0 0 11 16 0 0 0 10 0 0 0 0 11 0 0 0 7 0 9 13</t>
+    <t>46 47 52 42 45 40 40 50 56 51 56 57 37 38 52 42 40 50 49 36 34 79 46 35 42 37 63 46 35 38 47 38 47 43 43 42 43 55 46 31 41 47 46 40 43 41</t>
+  </si>
+  <si>
+    <t>6 0 9 0 0 0 12 18 0 14 -1 14 0 0 7 0 0 3 0 0 0 0 0 0 13 8 0 2 19 0 0 0 0 0 0 8 6 10 12 0 0 -1 4 0 0 4</t>
+  </si>
+  <si>
+    <t>0 7 0 0 0 0 0 0 0 0 0 0 -1 6 0 13 11 6 0 0 0 2 5 0 0 0 11 16 0 0 0 10 0 0 0 0 11 0 0 0 7 0 9 13 7 -1 16 0 0 15</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,31 +665,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>155</v>
       </c>
       <c r="N2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q2">
         <v>441</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G3">
         <v>16</v>
       </c>
       <c r="H3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="M3">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="N3">
         <v>14</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>304</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -940,31 +940,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,10 +976,10 @@
         <v>164</v>
       </c>
       <c r="N2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P2">
         <v>7</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>91</v>
+      </c>
+      <c r="G3">
+        <v>26</v>
+      </c>
+      <c r="H3">
         <v>18</v>
       </c>
-      <c r="F3">
-        <v>85</v>
-      </c>
-      <c r="G3">
-        <v>24</v>
-      </c>
-      <c r="H3">
-        <v>17</v>
-      </c>
       <c r="I3">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="M3">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="N3">
         <v>16</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>282</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1239,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L2">
         <v>30</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1365,13 +1365,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>

--- a/Base/Teams/Colts/2021 Team Data.xlsx
+++ b/Base/Teams/Colts/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 4 8 0 2 10 1 1 23 38 1 6 9 -1 0 12 -5 6 2 4 7 5 0 -5 6 0 -3 -1 1 10 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 2 10 8 6 2 1 10 1 -1 6 0 7 6 0 3 8 2 0 7 0 -1 15 11 -1 4 9 3 16 4 1 11 25 4 5 3 6 -3 7 7 3 6 10 0 12 3</t>
-  </si>
-  <si>
-    <t>10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 1 7 6 12 1 5 4 28 6 3 2 3 17 8 -2 3 14 10 1 3 41 11 24 20 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 12 9 17 13 7 51 52 6 18 28 10 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 8 -4 18 18 5 23 9 18 0 3 8 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 12 4 8 9 14 6 13 2 8 17 24 14 4 17 0 6</t>
-  </si>
-  <si>
-    <t>4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 4 2 4 2 0 6 3 -2 4 -1 4 3 2 0 0 4 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 3 10 0 3 8 9 4 28 3 8 5 2 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 4 2 4 2 4 0 5 7 0 7 5 5 1 7 16 2 2 8 3</t>
-  </si>
-  <si>
-    <t>23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 5 2 18 4 10 8 6 4 -7 11 8 7 4 22 25 42 22 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 12 11 2 10 4 14 2 5</t>
+    <t>1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 4 8 0 2 10 1 1 23 38 1 6 9 -1 0 12 -5 6 2 4 7 5 0 -5 6 0 -3 -1 1 10 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 2 10 8 6 2 1 10 1 -1 6 0 7 6 0 3 8 2 0 7 0 -1 15 11 -1 4 9 3 16 4 1 11 25 4 5 3 6 -3 7 7 3 6 10 0 12 3 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67</t>
+  </si>
+  <si>
+    <t>10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 1 7 6 12 1 5 4 28 6 3 2 3 17 8 -2 3 14 10 1 3 41 11 24 20 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 12 9 17 13 7 51 52 6 18 28 10 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 8 -4 18 18 5 23 9 18 0 3 8 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 12 4 8 9 14 6 13 2 8 17 24 14 4 17 0 6 7 8 23 0 19</t>
+  </si>
+  <si>
+    <t>4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 4 2 4 2 0 6 3 -2 4 -1 4 3 2 0 0 4 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 3 10 0 3 8 9 4 28 3 8 5 2 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 4 2 4 2 4 0 5 7 0 7 5 5 1 7 16 2 2 8 3 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2</t>
+  </si>
+  <si>
+    <t>23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 5 2 18 4 10 8 6 4 -7 11 8 7 4 22 25 42 22 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 12 11 2 10 4 14 2 5 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>68 64 60 63 62 62 65 62 62 66 60 62 63 63 62 53 63 59 61 60 67 70 63 63 62 65 65 60 62 62 67 58 61 59 67 65 61 68 65</t>
-  </si>
-  <si>
-    <t>22 21 21 28 15 16 23 23 21 23 27 23 34 15 19 10 22 27 27 33 27 25 21 28 19 20 25 22 12 12 27 20 17 17 24 30 12 26 22</t>
-  </si>
-  <si>
-    <t>22 19 41 16 17 21 23 0 26 20 27 31 14 18 27 31 25 18 3 15 27 19 26 33 19 72</t>
-  </si>
-  <si>
-    <t>46 47 52 42 45 40 40 50 56 51 56 57 37 38 52 42 40 50 49 36 34 79 46 35 42 37 63 46 35 38 47 38 47 43 43 42 43 55 46 31 41 47 46 40 43 41</t>
-  </si>
-  <si>
-    <t>6 0 9 0 0 0 12 18 0 14 -1 14 0 0 7 0 0 3 0 0 0 0 0 0 13 8 0 2 19 0 0 0 0 0 0 8 6 10 12 0 0 -1 4 0 0 4</t>
-  </si>
-  <si>
-    <t>0 7 0 0 0 0 0 0 0 0 0 0 -1 6 0 13 11 6 0 0 0 2 5 0 0 0 11 16 0 0 0 10 0 0 0 0 11 0 0 0 7 0 9 13 7 -1 16 0 0 15</t>
+    <t>68 64 60 63 62 62 65 62 62 66 60 62 63 63 62 53 63 59 61 60 67 70 63 63 62 65 65 60 62 62 67 58 61 59 67 65 61 68 65 65</t>
+  </si>
+  <si>
+    <t>22 21 21 28 15 16 23 23 21 23 27 23 34 15 19 10 22 27 27 33 27 25 21 28 19 20 25 22 12 12 27 20 17 17 24 30 12 26 22 20</t>
+  </si>
+  <si>
+    <t>22 19 41 16 17 21 23 0 26 20 27 31 14 18 27 31 25 18 3 15 27 19 26 33 19 72 21 22 20</t>
+  </si>
+  <si>
+    <t>46 47 52 42 45 40 40 50 56 51 56 57 37 38 52 42 40 50 49 36 34 79 46 35 42 37 63 46 35 38 47 38 47 43 43 42 43 55 46 31 41 47 46 40 43 41 46 41</t>
+  </si>
+  <si>
+    <t>6 0 9 0 0 0 12 18 0 14 -1 14 0 0 7 0 0 3 0 0 0 0 0 0 13 8 0 2 19 0 0 0 0 0 0 8 6 10 12 0 0 -1 4 0 0 4 1 0</t>
+  </si>
+  <si>
+    <t>0 7 0 0 0 0 0 0 0 0 0 0 -1 6 0 13 11 6 0 0 0 2 5 0 0 0 11 16 0 0 0 10 0 0 0 0 11 0 0 0 7 0 9 13 7 -1 16 0 0 15 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="D2">
         <v>14</v>
@@ -677,40 +677,40 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="M2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="N2">
         <v>8</v>
       </c>
       <c r="O2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q2">
-        <v>441</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,7 +721,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -730,19 +730,19 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>20</v>
       </c>
       <c r="I3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>112</v>
       </c>
       <c r="N3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -964,28 +964,28 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="M2">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="N2">
         <v>13</v>
       </c>
       <c r="O2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q2">
-        <v>452</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J3">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>123</v>
       </c>
       <c r="N3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1239,16 +1239,16 @@
         <v>1</v>
       </c>
       <c r="J2">
+        <v>41</v>
+      </c>
+      <c r="K2">
         <v>40</v>
       </c>
-      <c r="K2">
-        <v>39</v>
-      </c>
       <c r="L2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2">
         <v>9</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,10 +1368,10 @@
         <v>7</v>
       </c>
       <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
         <v>7</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/Base/Teams/Colts/2021 Team Data.xlsx
+++ b/Base/Teams/Colts/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 4 8 0 2 10 1 1 23 38 1 6 9 -1 0 12 -5 6 2 4 7 5 0 -5 6 0 -3 -1 1 10 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 2 10 8 6 2 1 10 1 -1 6 0 7 6 0 3 8 2 0 7 0 -1 15 11 -1 4 9 3 16 4 1 11 25 4 5 3 6 -3 7 7 3 6 10 0 12 3 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67</t>
-  </si>
-  <si>
-    <t>10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 1 7 6 12 1 5 4 28 6 3 2 3 17 8 -2 3 14 10 1 3 41 11 24 20 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 12 9 17 13 7 51 52 6 18 28 10 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 8 -4 18 18 5 23 9 18 0 3 8 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 12 4 8 9 14 6 13 2 8 17 24 14 4 17 0 6 7 8 23 0 19</t>
-  </si>
-  <si>
-    <t>4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 4 2 4 2 0 6 3 -2 4 -1 4 3 2 0 0 4 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 3 10 0 3 8 9 4 28 3 8 5 2 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 4 2 4 2 4 0 5 7 0 7 5 5 1 7 16 2 2 8 3 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2</t>
-  </si>
-  <si>
-    <t>23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 5 2 18 4 10 8 6 4 -7 11 8 7 4 22 25 42 22 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 12 11 2 10 4 14 2 5 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16</t>
+    <t>1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 4 8 0 2 10 1 1 23 38 1 6 9 -1 0 12 -5 6 2 4 7 5 0 -5 6 0 -3 -1 1 10 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 2 10 8 6 2 1 10 1 -1 6 0 7 6 0 3 8 2 0 7 0 -1 15 11 -1 4 9 3 16 4 1 11 25 4 5 3 6 -3 7 7 3 6 10 0 12 3 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67 43 3 -1 4 1 -2 2 2 4 -2 7 -2 5 5 11 -1 2 8 18 4 3 -1 1 3 3 -1 3 2 2 1 -3 3</t>
+  </si>
+  <si>
+    <t>10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 1 7 6 12 1 5 4 28 6 3 2 3 17 8 -2 3 14 10 1 3 41 11 24 20 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 12 9 17 13 7 51 52 6 18 28 10 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 8 -4 18 18 5 23 9 18 0 3 8 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 12 4 8 9 14 6 13 2 8 17 24 14 4 17 0 6 7 8 23 0 19 9 1 6 23 10 7 3 12 14 7 5 7 7 5 5 37 8 20 39 14</t>
+  </si>
+  <si>
+    <t>4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 4 2 4 2 0 6 3 -2 4 -1 4 3 2 0 0 4 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 3 10 0 3 8 9 4 28 3 8 5 2 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 4 2 4 2 4 0 5 7 0 7 5 5 1 7 16 2 2 8 3 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2 6 5 4 2 2 10 57 0 2 1 4 1 0 5 1 7 0 11 10 2</t>
+  </si>
+  <si>
+    <t>23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 5 2 18 4 10 8 6 4 -7 11 8 7 4 22 25 42 22 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 12 11 2 10 4 14 2 5 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16 3 10 5 10 5 8 13 7 11 4 3 11 10 24 3 33 4 5 7 16 7 4 7 14 2 14 8</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>68 64 60 63 62 62 65 62 62 66 60 62 63 63 62 53 63 59 61 60 67 70 63 63 62 65 65 60 62 62 67 58 61 59 67 65 61 68 65 65</t>
-  </si>
-  <si>
-    <t>22 21 21 28 15 16 23 23 21 23 27 23 34 15 19 10 22 27 27 33 27 25 21 28 19 20 25 22 12 12 27 20 17 17 24 30 12 26 22 20</t>
-  </si>
-  <si>
-    <t>22 19 41 16 17 21 23 0 26 20 27 31 14 18 27 31 25 18 3 15 27 19 26 33 19 72 21 22 20</t>
-  </si>
-  <si>
-    <t>46 47 52 42 45 40 40 50 56 51 56 57 37 38 52 42 40 50 49 36 34 79 46 35 42 37 63 46 35 38 47 38 47 43 43 42 43 55 46 31 41 47 46 40 43 41 46 41</t>
-  </si>
-  <si>
-    <t>6 0 9 0 0 0 12 18 0 14 -1 14 0 0 7 0 0 3 0 0 0 0 0 0 13 8 0 2 19 0 0 0 0 0 0 8 6 10 12 0 0 -1 4 0 0 4 1 0</t>
-  </si>
-  <si>
-    <t>0 7 0 0 0 0 0 0 0 0 0 0 -1 6 0 13 11 6 0 0 0 2 5 0 0 0 11 16 0 0 0 10 0 0 0 0 11 0 0 0 7 0 9 13 7 -1 16 0 0 15 0 0</t>
+    <t>68 64 60 63 62 62 65 62 62 66 60 62 63 63 62 53 63 59 61 60 67 70 63 63 62 65 65 60 62 62 67 58 61 59 67 65 61 68 65 65 66 68 49 68</t>
+  </si>
+  <si>
+    <t>22 21 21 28 15 16 23 23 21 23 27 23 34 15 19 10 22 27 27 33 27 25 21 28 19 20 25 22 12 12 27 20 17 17 24 30 12 26 22 20 21 13 16 31</t>
+  </si>
+  <si>
+    <t>22 19 41 16 17 21 23 0 26 20 27 31 14 18 27 31 25 18 3 15 27 19 26 33 19 72 21 22 20 16</t>
+  </si>
+  <si>
+    <t>46 47 52 42 45 40 40 50 56 51 56 57 37 38 52 42 40 50 49 36 34 79 46 35 42 37 63 46 35 38 47 38 47 43 43 42 43 55 46 31 41 47 46 40 43 41 46 41 39 44 32</t>
+  </si>
+  <si>
+    <t>6 0 9 0 0 0 12 18 0 14 -1 14 0 0 7 0 0 3 0 0 0 0 0 0 13 8 0 2 19 0 0 0 0 0 0 8 6 10 12 0 0 -1 4 0 0 4 1 0 0 48 0</t>
+  </si>
+  <si>
+    <t>0 7 0 0 0 0 0 0 0 0 0 0 -1 6 0 13 11 6 0 0 0 2 5 0 0 0 11 16 0 0 0 10 0 0 0 0 11 0 0 0 7 0 9 13 7 -1 16 0 0 15 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,10 +701,10 @@
         <v>160</v>
       </c>
       <c r="N2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2">
         <v>14</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G3">
         <v>17</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I3">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J3">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="M3">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="N3">
         <v>15</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>377</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -979,10 +979,10 @@
         <v>13</v>
       </c>
       <c r="O2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q2">
         <v>523</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>20</v>
       </c>
       <c r="I3">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J3">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="M3">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="N3">
         <v>17</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>335</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1239,19 +1239,19 @@
         <v>1</v>
       </c>
       <c r="J2">
+        <v>42</v>
+      </c>
+      <c r="K2">
         <v>41</v>
       </c>
-      <c r="K2">
-        <v>40</v>
-      </c>
       <c r="L2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2">
         <v>3</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1368,10 +1368,10 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Colts/2021 Team Data.xlsx
+++ b/Base/Teams/Colts/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 4 8 0 2 10 1 1 23 38 1 6 9 -1 0 12 -5 6 2 4 7 5 0 -5 6 0 -3 -1 1 10 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 2 10 8 6 2 1 10 1 -1 6 0 7 6 0 3 8 2 0 7 0 -1 15 11 -1 4 9 3 16 4 1 11 25 4 5 3 6 -3 7 7 3 6 10 0 12 3 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67 43 3 -1 4 1 -2 2 2 4 -2 7 -2 5 5 11 -1 2 8 18 4 3 -1 1 3 3 -1 3 2 2 1 -3 3</t>
-  </si>
-  <si>
-    <t>10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 1 7 6 12 1 5 4 28 6 3 2 3 17 8 -2 3 14 10 1 3 41 11 24 20 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 12 9 17 13 7 51 52 6 18 28 10 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 8 -4 18 18 5 23 9 18 0 3 8 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 12 4 8 9 14 6 13 2 8 17 24 14 4 17 0 6 7 8 23 0 19 9 1 6 23 10 7 3 12 14 7 5 7 7 5 5 37 8 20 39 14</t>
-  </si>
-  <si>
-    <t>4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 4 2 4 2 0 6 3 -2 4 -1 4 3 2 0 0 4 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 3 10 0 3 8 9 4 28 3 8 5 2 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 4 2 4 2 4 0 5 7 0 7 5 5 1 7 16 2 2 8 3 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2 6 5 4 2 2 10 57 0 2 1 4 1 0 5 1 7 0 11 10 2</t>
-  </si>
-  <si>
-    <t>23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 5 2 18 4 10 8 6 4 -7 11 8 7 4 22 25 42 22 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 12 11 2 10 4 14 2 5 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16 3 10 5 10 5 8 13 7 11 4 3 11 10 24 3 33 4 5 7 16 7 4 7 14 2 14 8</t>
+    <t>1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 4 8 0 2 10 1 1 23 38 1 6 9 -1 0 12 -5 6 2 4 7 5 0 -5 6 0 -3 -1 1 10 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 2 10 8 6 2 1 10 1 -1 6 0 7 6 0 3 8 2 0 7 0 -1 15 11 -1 4 9 3 16 4 1 11 25 4 5 3 6 -3 7 7 3 6 10 0 12 3 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67 43 3 -1 4 1 -2 2 2 4 -2 7 -2 5 5 11 -1 2 8 18 4 3 -1 1 3 3 -1 3 2 2 1 -3 3 3 -3 4 6 4 18 24 3 0 1 1 14 2 0 4 9 -1 2 8 5 7 1 4 3 1</t>
+  </si>
+  <si>
+    <t>10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 1 7 6 12 1 5 4 28 6 3 2 3 17 8 -2 3 14 10 1 3 41 11 24 20 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 12 9 17 13 7 51 52 6 18 28 10 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 8 -4 18 18 5 23 9 18 0 3 8 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 12 4 8 9 14 6 13 2 8 17 24 14 4 17 0 6 7 8 23 0 19 9 1 6 23 10 7 3 12 14 7 5 7 7 5 5 37 8 20 39 14 8 5 17 7 6 8 4 12 7 45 5 3 12 6 0 3</t>
+  </si>
+  <si>
+    <t>4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 4 2 4 2 0 6 3 -2 4 -1 4 3 2 0 0 4 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 3 10 0 3 8 9 4 28 3 8 5 2 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 4 2 4 2 4 0 5 7 0 7 5 5 1 7 16 2 2 8 3 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2 6 5 4 2 2 10 57 0 2 1 4 1 0 5 1 7 0 11 10 2 6 2 6 4 6 9 2 9 0 0 2 -4 1 -1 3 5 4 4 8 3 2 1 1 2 5 2</t>
+  </si>
+  <si>
+    <t>23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 5 2 18 4 10 8 6 4 -7 11 8 7 4 22 25 42 22 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 12 11 2 10 4 14 2 5 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16 3 10 5 10 5 8 13 7 11 4 3 11 10 24 3 33 4 5 7 16 7 4 7 14 2 14 8 14 5 7 3 11 -2 11 4 26 12 5 4 5 19 13 7 42 2 5 9 4 14 24</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>68 64 60 63 62 62 65 62 62 66 60 62 63 63 62 53 63 59 61 60 67 70 63 63 62 65 65 60 62 62 67 58 61 59 67 65 61 68 65 65 66 68 49 68</t>
-  </si>
-  <si>
-    <t>22 21 21 28 15 16 23 23 21 23 27 23 34 15 19 10 22 27 27 33 27 25 21 28 19 20 25 22 12 12 27 20 17 17 24 30 12 26 22 20 21 13 16 31</t>
-  </si>
-  <si>
-    <t>22 19 41 16 17 21 23 0 26 20 27 31 14 18 27 31 25 18 3 15 27 19 26 33 19 72 21 22 20 16</t>
-  </si>
-  <si>
-    <t>46 47 52 42 45 40 40 50 56 51 56 57 37 38 52 42 40 50 49 36 34 79 46 35 42 37 63 46 35 38 47 38 47 43 43 42 43 55 46 31 41 47 46 40 43 41 46 41 39 44 32</t>
-  </si>
-  <si>
-    <t>6 0 9 0 0 0 12 18 0 14 -1 14 0 0 7 0 0 3 0 0 0 0 0 0 13 8 0 2 19 0 0 0 0 0 0 8 6 10 12 0 0 -1 4 0 0 4 1 0 0 48 0</t>
-  </si>
-  <si>
-    <t>0 7 0 0 0 0 0 0 0 0 0 0 -1 6 0 13 11 6 0 0 0 2 5 0 0 0 11 16 0 0 0 10 0 0 0 0 11 0 0 0 7 0 9 13 7 -1 16 0 0 15 0 0 0</t>
+    <t>68 64 60 63 62 62 65 62 62 66 60 62 63 63 62 53 63 59 61 60 67 70 63 63 62 65 65 60 62 62 67 58 61 59 67 65 61 68 65 65 66 68 49 68 64 63</t>
+  </si>
+  <si>
+    <t>22 21 21 28 15 16 23 23 21 23 27 23 34 15 19 10 22 27 27 33 27 25 21 28 19 20 25 22 12 12 27 20 17 17 24 30 12 26 22 20 21 13 16 31 34 9</t>
+  </si>
+  <si>
+    <t>22 19 41 16 17 21 23 0 26 20 27 31 14 18 27 31 25 18 3 15 27 19 26 33 19 72 21 22 20 16 20 0</t>
+  </si>
+  <si>
+    <t>46 47 52 42 45 40 40 50 56 51 56 57 37 38 52 42 40 50 49 36 34 79 46 35 42 37 63 46 35 38 47 38 47 43 43 42 43 55 46 31 41 47 46 40 43 41 46 41 39 44 32 45 40 45 38 55</t>
+  </si>
+  <si>
+    <t>6 0 9 0 0 0 12 18 0 14 -1 14 0 0 7 0 0 3 0 0 0 0 0 0 13 8 0 2 19 0 0 0 0 0 0 8 6 10 12 0 0 -1 4 0 0 4 1 0 0 48 0 7 41 0 0 16</t>
+  </si>
+  <si>
+    <t>0 7 0 0 0 0 0 0 0 0 0 0 -1 6 0 13 11 6 0 0 0 2 5 0 0 0 11 16 0 0 0 10 0 0 0 0 11 0 0 0 7 0 9 13 7 -1 16 0 0 15 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -689,28 +689,28 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="M2">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="N2">
         <v>11</v>
       </c>
       <c r="O2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q2">
-        <v>492</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>132</v>
       </c>
       <c r="N3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
       <c r="F2">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -964,28 +964,28 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="M2">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="N2">
         <v>13</v>
       </c>
       <c r="O2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q2">
-        <v>523</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>117</v>
+      </c>
+      <c r="G3">
+        <v>33</v>
+      </c>
+      <c r="H3">
         <v>23</v>
       </c>
-      <c r="F3">
-        <v>111</v>
-      </c>
-      <c r="G3">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
       <c r="I3">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J3">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>150</v>
       </c>
       <c r="N3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1245,10 +1245,10 @@
         <v>41</v>
       </c>
       <c r="L2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N2">
         <v>10</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,13 +1348,13 @@
         <v>8</v>
       </c>
       <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
         <v>9</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Colts/2021 Team Data.xlsx
+++ b/Base/Teams/Colts/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 4 8 0 2 10 1 1 23 38 1 6 9 -1 0 12 -5 6 2 4 7 5 0 -5 6 0 -3 -1 1 10 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 2 10 8 6 2 1 10 1 -1 6 0 7 6 0 3 8 2 0 7 0 -1 15 11 -1 4 9 3 16 4 1 11 25 4 5 3 6 -3 7 7 3 6 10 0 12 3 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67 43 3 -1 4 1 -2 2 2 4 -2 7 -2 5 5 11 -1 2 8 18 4 3 -1 1 3 3 -1 3 2 2 1 -3 3 3 -3 4 6 4 18 24 3 0 1 1 14 2 0 4 9 -1 2 8 5 7 1 4 3 1</t>
-  </si>
-  <si>
-    <t>10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 1 7 6 12 1 5 4 28 6 3 2 3 17 8 -2 3 14 10 1 3 41 11 24 20 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 12 9 17 13 7 51 52 6 18 28 10 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 8 -4 18 18 5 23 9 18 0 3 8 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 12 4 8 9 14 6 13 2 8 17 24 14 4 17 0 6 7 8 23 0 19 9 1 6 23 10 7 3 12 14 7 5 7 7 5 5 37 8 20 39 14 8 5 17 7 6 8 4 12 7 45 5 3 12 6 0 3</t>
-  </si>
-  <si>
-    <t>4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 4 2 4 2 0 6 3 -2 4 -1 4 3 2 0 0 4 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 3 10 0 3 8 9 4 28 3 8 5 2 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 4 2 4 2 4 0 5 7 0 7 5 5 1 7 16 2 2 8 3 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2 6 5 4 2 2 10 57 0 2 1 4 1 0 5 1 7 0 11 10 2 6 2 6 4 6 9 2 9 0 0 2 -4 1 -1 3 5 4 4 8 3 2 1 1 2 5 2</t>
-  </si>
-  <si>
-    <t>23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 5 2 18 4 10 8 6 4 -7 11 8 7 4 22 25 42 22 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 12 11 2 10 4 14 2 5 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16 3 10 5 10 5 8 13 7 11 4 3 11 10 24 3 33 4 5 7 16 7 4 7 14 2 14 8 14 5 7 3 11 -2 11 4 26 12 5 4 5 19 13 7 42 2 5 9 4 14 24</t>
+    <t>1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 4 8 0 2 10 1 1 23 38 1 6 9 -1 0 12 -5 6 2 4 7 5 0 -5 6 0 -3 -1 1 10 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 3 8 10 6 10 3 3 11 2 4 5 1 6 0 18 4 3 7 -1 2 2 3 5 40 10 9 0 3 2 1 19 6 5 18 9 3 -3 1 5 0 4 -2 0 5 12 5 1 16 3 2 5 15 5 10 15 1 3 4 2 10 8 6 2 1 10 1 -1 6 0 7 6 0 3 8 2 0 7 0 -1 15 11 -1 4 9 3 16 4 1 11 25 4 5 3 6 -3 7 7 3 6 10 0 12 3 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67 43 3 -1 4 1 -2 2 2 4 -2 7 -2 5 5 11 -1 2 8 18 4 3 -1 1 3 3 -1 3 2 2 1 -3 3 3 -3 4 6 4 18 24 3 0 1 1 14 2 0 4 9 -1 2 8 5 7 1 4 3 1 8 1 2 3 0 10 -2 6 5 2 8 23 1 13 8</t>
+  </si>
+  <si>
+    <t>10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 1 7 6 12 1 5 4 28 6 3 2 3 17 8 -2 3 14 10 1 3 41 11 24 20 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 12 9 17 13 7 51 52 6 18 28 10 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 8 -4 18 18 5 23 9 18 0 3 8 8 4 9 8 62 10 14 3 3 15 9 5 12 22 9 23 -3 15 5 15 11 11 7 8 7 10 12 4 8 9 14 6 13 2 8 17 24 14 4 17 0 6 7 8 23 0 19 9 1 6 23 10 7 3 12 14 7 5 7 7 5 5 37 8 20 39 14 8 5 17 7 6 8 4 12 7 45 5 3 12 6 0 3 11 33 6 9 11 4 7 10 3 18 4 10 8 21 9 12</t>
+  </si>
+  <si>
+    <t>4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 4 2 4 2 0 6 3 -2 4 -1 4 3 2 0 0 4 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 3 10 0 3 8 9 4 28 3 8 5 2 4 7 3 7 -3 4 2 2 1 11 6 12 4 1 4 5 8 8 1 2 3 1 11 8 3 28 4 2 4 2 4 0 5 7 0 7 5 5 1 7 16 2 2 8 3 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2 6 5 4 2 2 10 57 0 2 1 4 1 0 5 1 7 0 11 10 2 6 2 6 4 6 9 2 9 0 0 2 -4 1 -1 3 5 4 4 8 3 2 1 1 2 5 2 3 -1 1 2 1 4 2 4 1 12 8 2 0 26 4 1 0 2 4 5 1 6 0 6 3 -1 6</t>
+  </si>
+  <si>
+    <t>23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 5 2 18 4 10 8 6 4 -7 11 8 7 4 22 25 42 22 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 7 11 9 7 20 2 18 3 6 14 12 7 6 10 6 7 16 7 31 1 9 20 9 0 0 4 -1 10 8 7 7 15 9 26 5 4 11 10 32 9 2 9 3 8 6 13 15 5 12 11 2 10 4 14 2 5 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16 3 10 5 10 5 8 13 7 11 4 3 11 10 24 3 33 4 5 7 16 7 4 7 14 2 14 8 14 5 7 3 11 -2 11 4 26 12 5 4 5 19 13 7 42 2 5 9 4 14 24 17 6 12 16 8 15 7 2 9 1 11 6 18 29 7 10 14 12 8 1 6 5 3</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>22 21 21 28 15 16 23 23 21 23 27 23 34 15 19 10 22 27 27 33 27 25 21 28 19 20 25 22 12 12 27 20 17 17 24 30 12 26 22 20 21 13 16 31 34 9</t>
   </si>
   <si>
-    <t>22 19 41 16 17 21 23 0 26 20 27 31 14 18 27 31 25 18 3 15 27 19 26 33 19 72 21 22 20 16 20 0</t>
-  </si>
-  <si>
-    <t>46 47 52 42 45 40 40 50 56 51 56 57 37 38 52 42 40 50 49 36 34 79 46 35 42 37 63 46 35 38 47 38 47 43 43 42 43 55 46 31 41 47 46 40 43 41 46 41 39 44 32 45 40 45 38 55</t>
-  </si>
-  <si>
-    <t>6 0 9 0 0 0 12 18 0 14 -1 14 0 0 7 0 0 3 0 0 0 0 0 0 13 8 0 2 19 0 0 0 0 0 0 8 6 10 12 0 0 -1 4 0 0 4 1 0 0 48 0 7 41 0 0 16</t>
-  </si>
-  <si>
-    <t>0 7 0 0 0 0 0 0 0 0 0 0 -1 6 0 13 11 6 0 0 0 2 5 0 0 0 11 16 0 0 0 10 0 0 0 0 11 0 0 0 7 0 9 13 7 -1 16 0 0 15 0 0 0 0 0</t>
+    <t>22 19 41 16 17 21 23 0 26 20 27 31 14 18 27 31 25 18 3 15 27 19 26 33 19 72 21 22 20 16 20 0 40 18 41</t>
+  </si>
+  <si>
+    <t>46 47 52 42 45 40 40 50 56 51 56 57 37 38 52 42 40 50 49 36 34 79 46 35 42 37 63 46 35 38 47 38 47 43 43 42 43 55 46 31 41 47 46 40 43 41 46 41 39 44 32 45 40 45 38 55 45 33</t>
+  </si>
+  <si>
+    <t>6 0 9 0 0 0 12 18 0 14 -1 14 0 0 7 0 0 3 0 0 0 0 0 0 13 8 0 2 19 0 0 0 0 0 0 8 6 10 12 0 0 -1 4 0 0 4 1 0 0 48 0 7 41 0 0 16 0 0</t>
+  </si>
+  <si>
+    <t>0 7 0 0 0 0 0 0 0 0 0 0 -1 6 0 13 11 6 0 0 0 2 5 0 0 0 11 16 0 0 0 10 0 0 0 0 11 0 0 0 7 0 9 13 7 -1 16 0 0 15 0 0 0 0 0 0 0 7</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D2">
         <v>16</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>176</v>
       </c>
       <c r="N2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q2">
         <v>550</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="M3">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="N3">
         <v>16</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>449</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -940,10 +940,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -952,19 +952,19 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>215</v>
       </c>
       <c r="N2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q2">
         <v>586</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J3">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="M3">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="N3">
         <v>19</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>404</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1233,10 +1233,10 @@
         <v>126</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>42</v>
@@ -1245,10 +1245,10 @@
         <v>41</v>
       </c>
       <c r="L2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2">
         <v>10</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
